--- a/biology/Botanique/Lupin_à_folioles_larges/Lupin_à_folioles_larges.xlsx
+++ b/biology/Botanique/Lupin_à_folioles_larges/Lupin_à_folioles_larges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lupin_%C3%A0_folioles_larges</t>
+          <t>Lupin_à_folioles_larges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lupinus latifolius est une espèce de lupin originaire de l’ouest de l’Amérique du Nord.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lupin_%C3%A0_folioles_larges</t>
+          <t>Lupin_à_folioles_larges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est présente à l’ouest de l’Amérique du Nord de la Californie jusque l’État de Washington. Elle est également présente dans les États du Nevada, de l’Utah, de l’Arizona et du Nouveau-Mexique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est présente à l’ouest de l’Amérique du Nord de la Californie jusque l’État de Washington. Elle est également présente dans les États du Nevada, de l’Utah, de l’Arizona et du Nouveau-Mexique.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lupin_%C3%A0_folioles_larges</t>
+          <t>Lupin_à_folioles_larges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante vivace peut atteindre une taille comprise entre 30 centimètres jusque 2 mètres. Ses feuilles composées sont palmées. L’inflorescence possède un grand nombre de fleurs. Chaque fleur fait entre un et deux centimètres de long. La coloration des fleurs varie de bleu – violet à blanc
-Sous-espèces
-La plante dispose de nombreuses sous-espèces. Parmi celles-ci se trouve la rare Lupinus latifolius barbatus qui est endémique au plateau de Modoc au nord-est de la Californie. Lupinus latifolius dudleyi est quant à lui présent dans la région de la baie de San Francisco.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lupin_à_folioles_larges</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lupin_%C3%A0_folioles_larges</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante dispose de nombreuses sous-espèces. Parmi celles-ci se trouve la rare Lupinus latifolius barbatus qui est endémique au plateau de Modoc au nord-est de la Californie. Lupinus latifolius dudleyi est quant à lui présent dans la région de la baie de San Francisco.
 </t>
         </is>
       </c>
